--- a/tech_management/existing_system_retro.xlsx
+++ b/tech_management/existing_system_retro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sliang\development\github\laolang_tutorials\tech_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B93280-3EBC-44A6-8C36-0C601402867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EF3B97-6165-4295-9098-1E5FDEC350DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Operation</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Deployment</t>
   </si>
   <si>
-    <t xml:space="preserve">We will focus on the calculation process and retrospect from advantage(pros) and disadvantage(cons) basing on following dimensions. </t>
-  </si>
-  <si>
     <t>Focus Point</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will focus on the calculation process and data movement，  and retrospect from advantage(pros) and disadvantage(cons) basing on following dimensions. </t>
   </si>
 </sst>
 </file>
@@ -166,8 +169,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -175,12 +182,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,7 +468,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,50 +479,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -535,7 +538,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,44 +554,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,15 +737,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -751,88 +754,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683CDBAB-302F-4720-B2C8-96C3448A615C}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
